--- a/data/trans_orig/P14C22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F949646-06E4-4836-AD05-7197337FC9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66931EC-3BC2-41BD-A4E5-A90844BE78D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8D65A12-6580-4641-8C82-40FC3D5FDC94}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE572C57-2B9F-4145-B7E4-1629D1585F64}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>89,35%</t>
   </si>
   <si>
-    <t>46,0%</t>
+    <t>42,3%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -179,7 +179,7 @@
     <t>10,65%</t>
   </si>
   <si>
-    <t>54,0%</t>
+    <t>57,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -203,34 +203,34 @@
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>66,08%</t>
+    <t>71,02%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -239,31 +239,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66B61B-D969-4033-9CAB-A78C46ED039E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4149F3A5-5086-4AE5-B436-CE9B6BD423B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66931EC-3BC2-41BD-A4E5-A90844BE78D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{295C2F35-A648-4116-AAA6-164B256059FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE572C57-2B9F-4145-B7E4-1629D1585F64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E1EEDE4-94B4-439E-9AF1-164DAA0A422C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="77">
   <si>
-    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
+    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2016 (Tasa respuesta: 0,58%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -164,7 +164,7 @@
     <t>89,35%</t>
   </si>
   <si>
-    <t>42,3%</t>
+    <t>53,43%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -179,7 +179,7 @@
     <t>10,65%</t>
   </si>
   <si>
-    <t>57,7%</t>
+    <t>46,57%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -203,34 +203,34 @@
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -239,31 +239,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>33,82%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4149F3A5-5086-4AE5-B436-CE9B6BD423B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744ED820-3B99-4E75-8791-8A17AF72E1E0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
